--- a/xlsx/比利時_intext.xlsx
+++ b/xlsx/比利時_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1178">
   <si>
     <t>比利時</t>
   </si>
@@ -29,7 +29,7 @@
     <t>荷蘭語</t>
   </si>
   <si>
-    <t>政策_政策_美國_比利時</t>
+    <t>体育运动_体育运动_欧洲议会_比利時</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
@@ -1664,10 +1664,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
@@ -1760,10 +1784,10 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1772,6 +1796,12 @@
     <t>俄罗斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -1808,10 +1838,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -1904,18 +1934,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -1934,10 +1964,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1988,16 +2018,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -2006,10 +2042,10 @@
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -3861,7 +3897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I609"/>
+  <dimension ref="A1:I615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4089,7 +4125,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -12267,7 +12303,7 @@
         <v>550</v>
       </c>
       <c r="G290" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -12296,7 +12332,7 @@
         <v>552</v>
       </c>
       <c r="G291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -12325,7 +12361,7 @@
         <v>554</v>
       </c>
       <c r="G292" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -12354,7 +12390,7 @@
         <v>556</v>
       </c>
       <c r="G293" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -12383,7 +12419,7 @@
         <v>558</v>
       </c>
       <c r="G294" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -12412,7 +12448,7 @@
         <v>560</v>
       </c>
       <c r="G295" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -12470,7 +12506,7 @@
         <v>564</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -12499,7 +12535,7 @@
         <v>566</v>
       </c>
       <c r="G298" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -12528,7 +12564,7 @@
         <v>568</v>
       </c>
       <c r="G299" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -12557,7 +12593,7 @@
         <v>570</v>
       </c>
       <c r="G300" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -12586,7 +12622,7 @@
         <v>572</v>
       </c>
       <c r="G301" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -12615,7 +12651,7 @@
         <v>574</v>
       </c>
       <c r="G302" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -12644,7 +12680,7 @@
         <v>576</v>
       </c>
       <c r="G303" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -12673,7 +12709,7 @@
         <v>578</v>
       </c>
       <c r="G304" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -12702,7 +12738,7 @@
         <v>580</v>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -12731,7 +12767,7 @@
         <v>582</v>
       </c>
       <c r="G306" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -12760,7 +12796,7 @@
         <v>584</v>
       </c>
       <c r="G307" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -12789,7 +12825,7 @@
         <v>586</v>
       </c>
       <c r="G308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -12818,7 +12854,7 @@
         <v>588</v>
       </c>
       <c r="G309" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -12847,7 +12883,7 @@
         <v>590</v>
       </c>
       <c r="G310" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -12876,7 +12912,7 @@
         <v>592</v>
       </c>
       <c r="G311" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -12905,7 +12941,7 @@
         <v>594</v>
       </c>
       <c r="G312" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12934,7 +12970,7 @@
         <v>596</v>
       </c>
       <c r="G313" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12963,7 +12999,7 @@
         <v>598</v>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -12992,7 +13028,7 @@
         <v>600</v>
       </c>
       <c r="G315" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -13021,7 +13057,7 @@
         <v>602</v>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -13079,7 +13115,7 @@
         <v>606</v>
       </c>
       <c r="G318" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -13137,7 +13173,7 @@
         <v>610</v>
       </c>
       <c r="G320" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -13224,7 +13260,7 @@
         <v>616</v>
       </c>
       <c r="G323" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -13253,7 +13289,7 @@
         <v>618</v>
       </c>
       <c r="G324" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -13282,7 +13318,7 @@
         <v>620</v>
       </c>
       <c r="G325" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -13311,7 +13347,7 @@
         <v>622</v>
       </c>
       <c r="G326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -13340,7 +13376,7 @@
         <v>624</v>
       </c>
       <c r="G327" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -13369,7 +13405,7 @@
         <v>626</v>
       </c>
       <c r="G328" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -13427,7 +13463,7 @@
         <v>630</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -13485,7 +13521,7 @@
         <v>634</v>
       </c>
       <c r="G332" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -13514,7 +13550,7 @@
         <v>636</v>
       </c>
       <c r="G333" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -13543,7 +13579,7 @@
         <v>638</v>
       </c>
       <c r="G334" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -13572,7 +13608,7 @@
         <v>640</v>
       </c>
       <c r="G335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -13630,7 +13666,7 @@
         <v>644</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -13659,7 +13695,7 @@
         <v>646</v>
       </c>
       <c r="G338" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -13688,7 +13724,7 @@
         <v>648</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -13775,7 +13811,7 @@
         <v>654</v>
       </c>
       <c r="G342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -13804,7 +13840,7 @@
         <v>656</v>
       </c>
       <c r="G343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -13833,7 +13869,7 @@
         <v>658</v>
       </c>
       <c r="G344" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -13891,7 +13927,7 @@
         <v>662</v>
       </c>
       <c r="G346" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -13920,7 +13956,7 @@
         <v>664</v>
       </c>
       <c r="G347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -14007,7 +14043,7 @@
         <v>670</v>
       </c>
       <c r="G350" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -14065,7 +14101,7 @@
         <v>674</v>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -14152,7 +14188,7 @@
         <v>680</v>
       </c>
       <c r="G355" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -14181,7 +14217,7 @@
         <v>682</v>
       </c>
       <c r="G356" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -14210,7 +14246,7 @@
         <v>684</v>
       </c>
       <c r="G357" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -14297,7 +14333,7 @@
         <v>690</v>
       </c>
       <c r="G360" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -14326,7 +14362,7 @@
         <v>692</v>
       </c>
       <c r="G361" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -14355,7 +14391,7 @@
         <v>694</v>
       </c>
       <c r="G362" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -14384,7 +14420,7 @@
         <v>696</v>
       </c>
       <c r="G363" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -14413,7 +14449,7 @@
         <v>698</v>
       </c>
       <c r="G364" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -14471,7 +14507,7 @@
         <v>702</v>
       </c>
       <c r="G366" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -14500,7 +14536,7 @@
         <v>704</v>
       </c>
       <c r="G367" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -14529,7 +14565,7 @@
         <v>706</v>
       </c>
       <c r="G368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -14703,7 +14739,7 @@
         <v>718</v>
       </c>
       <c r="G374" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -14732,7 +14768,7 @@
         <v>720</v>
       </c>
       <c r="G375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -14761,7 +14797,7 @@
         <v>722</v>
       </c>
       <c r="G376" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -14929,10 +14965,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>641</v>
+        <v>733</v>
       </c>
       <c r="F382" t="s">
-        <v>642</v>
+        <v>734</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14958,10 +14994,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F383" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14987,13 +15023,13 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F384" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="G384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -15016,10 +15052,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>647</v>
+        <v>739</v>
       </c>
       <c r="F385" t="s">
-        <v>648</v>
+        <v>740</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15045,13 +15081,13 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="F386" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="G386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H386" t="s">
         <v>4</v>
@@ -15074,10 +15110,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="F387" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15103,10 +15139,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>741</v>
+        <v>651</v>
       </c>
       <c r="F388" t="s">
-        <v>742</v>
+        <v>652</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15132,13 +15168,13 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F389" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="G389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -15161,13 +15197,13 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F390" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -15190,10 +15226,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>747</v>
+        <v>657</v>
       </c>
       <c r="F391" t="s">
-        <v>748</v>
+        <v>658</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15225,7 +15261,7 @@
         <v>750</v>
       </c>
       <c r="G392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -15254,7 +15290,7 @@
         <v>752</v>
       </c>
       <c r="G393" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -15283,7 +15319,7 @@
         <v>754</v>
       </c>
       <c r="G394" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -15312,7 +15348,7 @@
         <v>756</v>
       </c>
       <c r="G395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H395" t="s">
         <v>4</v>
@@ -15341,7 +15377,7 @@
         <v>758</v>
       </c>
       <c r="G396" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -15370,7 +15406,7 @@
         <v>760</v>
       </c>
       <c r="G397" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -15399,7 +15435,7 @@
         <v>762</v>
       </c>
       <c r="G398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
@@ -15428,7 +15464,7 @@
         <v>764</v>
       </c>
       <c r="G399" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -15457,7 +15493,7 @@
         <v>766</v>
       </c>
       <c r="G400" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H400" t="s">
         <v>4</v>
@@ -15486,7 +15522,7 @@
         <v>768</v>
       </c>
       <c r="G401" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -15544,7 +15580,7 @@
         <v>772</v>
       </c>
       <c r="G403" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -15573,7 +15609,7 @@
         <v>774</v>
       </c>
       <c r="G404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H404" t="s">
         <v>4</v>
@@ -15596,13 +15632,13 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>605</v>
+        <v>775</v>
       </c>
       <c r="F405" t="s">
-        <v>606</v>
+        <v>776</v>
       </c>
       <c r="G405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H405" t="s">
         <v>4</v>
@@ -15625,10 +15661,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F406" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -15654,10 +15690,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F407" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15683,10 +15719,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F408" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G408" t="n">
         <v>3</v>
@@ -15712,13 +15748,13 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F409" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G409" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H409" t="s">
         <v>4</v>
@@ -15741,10 +15777,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F410" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15770,13 +15806,13 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>785</v>
+        <v>615</v>
       </c>
       <c r="F411" t="s">
-        <v>786</v>
+        <v>616</v>
       </c>
       <c r="G411" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H411" t="s">
         <v>4</v>
@@ -15805,7 +15841,7 @@
         <v>788</v>
       </c>
       <c r="G412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H412" t="s">
         <v>4</v>
@@ -15863,7 +15899,7 @@
         <v>792</v>
       </c>
       <c r="G414" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H414" t="s">
         <v>4</v>
@@ -15892,7 +15928,7 @@
         <v>794</v>
       </c>
       <c r="G415" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H415" t="s">
         <v>4</v>
@@ -16008,7 +16044,7 @@
         <v>802</v>
       </c>
       <c r="G419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -16060,13 +16096,13 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>439</v>
+        <v>805</v>
       </c>
       <c r="F421" t="s">
-        <v>440</v>
+        <v>806</v>
       </c>
       <c r="G421" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H421" t="s">
         <v>4</v>
@@ -16089,13 +16125,13 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F422" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G422" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H422" t="s">
         <v>4</v>
@@ -16118,10 +16154,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F423" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16147,10 +16183,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F424" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16176,13 +16212,13 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F425" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -16205,10 +16241,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F426" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16234,13 +16270,13 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>815</v>
+        <v>439</v>
       </c>
       <c r="F427" t="s">
-        <v>816</v>
+        <v>440</v>
       </c>
       <c r="G427" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -16269,7 +16305,7 @@
         <v>818</v>
       </c>
       <c r="G428" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -16327,7 +16363,7 @@
         <v>822</v>
       </c>
       <c r="G430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -16501,7 +16537,7 @@
         <v>834</v>
       </c>
       <c r="G436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
@@ -16588,7 +16624,7 @@
         <v>840</v>
       </c>
       <c r="G439" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H439" t="s">
         <v>4</v>
@@ -16617,7 +16653,7 @@
         <v>842</v>
       </c>
       <c r="G440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H440" t="s">
         <v>4</v>
@@ -16675,7 +16711,7 @@
         <v>846</v>
       </c>
       <c r="G442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -16762,7 +16798,7 @@
         <v>852</v>
       </c>
       <c r="G445" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H445" t="s">
         <v>4</v>
@@ -16791,7 +16827,7 @@
         <v>854</v>
       </c>
       <c r="G446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H446" t="s">
         <v>4</v>
@@ -16849,7 +16885,7 @@
         <v>858</v>
       </c>
       <c r="G448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H448" t="s">
         <v>4</v>
@@ -16878,7 +16914,7 @@
         <v>860</v>
       </c>
       <c r="G449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H449" t="s">
         <v>4</v>
@@ -17052,7 +17088,7 @@
         <v>872</v>
       </c>
       <c r="G455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H455" t="s">
         <v>4</v>
@@ -17110,7 +17146,7 @@
         <v>876</v>
       </c>
       <c r="G457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H457" t="s">
         <v>4</v>
@@ -17139,7 +17175,7 @@
         <v>878</v>
       </c>
       <c r="G458" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H458" t="s">
         <v>4</v>
@@ -17168,7 +17204,7 @@
         <v>880</v>
       </c>
       <c r="G459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H459" t="s">
         <v>4</v>
@@ -17197,7 +17233,7 @@
         <v>882</v>
       </c>
       <c r="G460" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H460" t="s">
         <v>4</v>
@@ -17226,7 +17262,7 @@
         <v>884</v>
       </c>
       <c r="G461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H461" t="s">
         <v>4</v>
@@ -17249,10 +17285,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>841</v>
+        <v>885</v>
       </c>
       <c r="F462" t="s">
-        <v>842</v>
+        <v>886</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17278,10 +17314,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F463" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G463" t="n">
         <v>2</v>
@@ -17307,13 +17343,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F464" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G464" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -17336,10 +17372,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F465" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -17365,13 +17401,13 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F466" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G466" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H466" t="s">
         <v>4</v>
@@ -17394,13 +17430,13 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F467" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H467" t="s">
         <v>4</v>
@@ -17423,10 +17459,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="F468" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17452,13 +17488,13 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="F469" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H469" t="s">
         <v>4</v>
@@ -17481,10 +17517,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F470" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17510,13 +17546,13 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F471" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H471" t="s">
         <v>4</v>
@@ -17539,10 +17575,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F472" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17568,10 +17604,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F473" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17597,10 +17633,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>905</v>
+        <v>857</v>
       </c>
       <c r="F474" t="s">
-        <v>906</v>
+        <v>858</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17632,7 +17668,7 @@
         <v>908</v>
       </c>
       <c r="G475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H475" t="s">
         <v>4</v>
@@ -17690,7 +17726,7 @@
         <v>912</v>
       </c>
       <c r="G477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H477" t="s">
         <v>4</v>
@@ -17864,7 +17900,7 @@
         <v>924</v>
       </c>
       <c r="G483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H483" t="s">
         <v>4</v>
@@ -17974,13 +18010,13 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>881</v>
+        <v>931</v>
       </c>
       <c r="F487" t="s">
-        <v>882</v>
+        <v>932</v>
       </c>
       <c r="G487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H487" t="s">
         <v>4</v>
@@ -18003,13 +18039,13 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F488" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="G488" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H488" t="s">
         <v>4</v>
@@ -18032,13 +18068,13 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="F489" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G489" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H489" t="s">
         <v>4</v>
@@ -18061,13 +18097,13 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F490" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="G490" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H490" t="s">
         <v>4</v>
@@ -18090,10 +18126,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F491" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18119,13 +18155,13 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F492" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G492" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H492" t="s">
         <v>4</v>
@@ -18148,10 +18184,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>941</v>
+        <v>893</v>
       </c>
       <c r="F493" t="s">
-        <v>942</v>
+        <v>894</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18183,7 +18219,7 @@
         <v>944</v>
       </c>
       <c r="G494" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -18212,7 +18248,7 @@
         <v>946</v>
       </c>
       <c r="G495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H495" t="s">
         <v>4</v>
@@ -18241,7 +18277,7 @@
         <v>948</v>
       </c>
       <c r="G496" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H496" t="s">
         <v>4</v>
@@ -18299,7 +18335,7 @@
         <v>952</v>
       </c>
       <c r="G498" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H498" t="s">
         <v>4</v>
@@ -18328,7 +18364,7 @@
         <v>954</v>
       </c>
       <c r="G499" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H499" t="s">
         <v>4</v>
@@ -18386,7 +18422,7 @@
         <v>958</v>
       </c>
       <c r="G501" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H501" t="s">
         <v>4</v>
@@ -18415,7 +18451,7 @@
         <v>960</v>
       </c>
       <c r="G502" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H502" t="s">
         <v>4</v>
@@ -18502,7 +18538,7 @@
         <v>966</v>
       </c>
       <c r="G505" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H505" t="s">
         <v>4</v>
@@ -18589,7 +18625,7 @@
         <v>972</v>
       </c>
       <c r="G508" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H508" t="s">
         <v>4</v>
@@ -18879,7 +18915,7 @@
         <v>992</v>
       </c>
       <c r="G518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H518" t="s">
         <v>4</v>
@@ -19018,10 +19054,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>617</v>
+        <v>1001</v>
       </c>
       <c r="F523" t="s">
-        <v>618</v>
+        <v>1002</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19047,13 +19083,13 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F524" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="G524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H524" t="s">
         <v>4</v>
@@ -19076,10 +19112,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F525" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19105,10 +19141,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F526" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19134,10 +19170,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F527" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19163,10 +19199,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="F528" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19192,10 +19228,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1011</v>
+        <v>627</v>
       </c>
       <c r="F529" t="s">
-        <v>1012</v>
+        <v>628</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19569,10 +19605,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>909</v>
+        <v>1037</v>
       </c>
       <c r="F542" t="s">
-        <v>910</v>
+        <v>1038</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19598,10 +19634,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="F543" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19627,10 +19663,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="F544" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19656,10 +19692,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F545" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19685,10 +19721,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F546" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19714,10 +19750,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="F547" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19743,10 +19779,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1047</v>
+        <v>921</v>
       </c>
       <c r="F548" t="s">
-        <v>1048</v>
+        <v>922</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19894,7 +19930,7 @@
         <v>1058</v>
       </c>
       <c r="G553" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H553" t="s">
         <v>4</v>
@@ -20068,7 +20104,7 @@
         <v>1070</v>
       </c>
       <c r="G559" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H559" t="s">
         <v>4</v>
@@ -20271,7 +20307,7 @@
         <v>1084</v>
       </c>
       <c r="G566" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H566" t="s">
         <v>4</v>
@@ -20381,10 +20417,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>743</v>
+        <v>1091</v>
       </c>
       <c r="F570" t="s">
-        <v>744</v>
+        <v>1092</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20410,10 +20446,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F571" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20439,13 +20475,13 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F572" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G572" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H572" t="s">
         <v>4</v>
@@ -20468,10 +20504,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="F573" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20497,10 +20533,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F574" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20526,10 +20562,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F575" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20555,10 +20591,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1101</v>
+        <v>755</v>
       </c>
       <c r="F576" t="s">
-        <v>1102</v>
+        <v>756</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20845,10 +20881,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>725</v>
+        <v>1121</v>
       </c>
       <c r="F586" t="s">
-        <v>726</v>
+        <v>1122</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20874,10 +20910,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="F587" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20903,10 +20939,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="F588" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20932,10 +20968,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="F589" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -20961,10 +20997,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="F590" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -20990,10 +21026,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="F591" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21019,10 +21055,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1131</v>
+        <v>737</v>
       </c>
       <c r="F592" t="s">
-        <v>1132</v>
+        <v>738</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21228,7 +21264,7 @@
         <v>1146</v>
       </c>
       <c r="G599" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H599" t="s">
         <v>4</v>
@@ -21402,7 +21438,7 @@
         <v>1158</v>
       </c>
       <c r="G605" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H605" t="s">
         <v>4</v>
@@ -21489,7 +21525,7 @@
         <v>1164</v>
       </c>
       <c r="G608" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H608" t="s">
         <v>4</v>
@@ -21512,10 +21548,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="F609" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21524,6 +21560,180 @@
         <v>4</v>
       </c>
       <c r="I609" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="s">
+        <v>0</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1</v>
+      </c>
+      <c r="D610" t="n">
+        <v>609</v>
+      </c>
+      <c r="E610" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F610" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G610" t="n">
+        <v>1</v>
+      </c>
+      <c r="H610" t="s">
+        <v>4</v>
+      </c>
+      <c r="I610" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="s">
+        <v>0</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1</v>
+      </c>
+      <c r="D611" t="n">
+        <v>610</v>
+      </c>
+      <c r="E611" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F611" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G611" t="n">
+        <v>1</v>
+      </c>
+      <c r="H611" t="s">
+        <v>4</v>
+      </c>
+      <c r="I611" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="s">
+        <v>0</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1</v>
+      </c>
+      <c r="D612" t="n">
+        <v>611</v>
+      </c>
+      <c r="E612" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F612" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G612" t="n">
+        <v>1</v>
+      </c>
+      <c r="H612" t="s">
+        <v>4</v>
+      </c>
+      <c r="I612" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="s">
+        <v>0</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1</v>
+      </c>
+      <c r="D613" t="n">
+        <v>612</v>
+      </c>
+      <c r="E613" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F613" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G613" t="n">
+        <v>1</v>
+      </c>
+      <c r="H613" t="s">
+        <v>4</v>
+      </c>
+      <c r="I613" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="s">
+        <v>0</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1</v>
+      </c>
+      <c r="D614" t="n">
+        <v>613</v>
+      </c>
+      <c r="E614" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F614" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G614" t="n">
+        <v>15</v>
+      </c>
+      <c r="H614" t="s">
+        <v>4</v>
+      </c>
+      <c r="I614" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="s">
+        <v>0</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1</v>
+      </c>
+      <c r="D615" t="n">
+        <v>614</v>
+      </c>
+      <c r="E615" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F615" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G615" t="n">
+        <v>1</v>
+      </c>
+      <c r="H615" t="s">
+        <v>4</v>
+      </c>
+      <c r="I615" t="n">
         <v>3</v>
       </c>
     </row>
